--- a/cross_above_signals.xlsx
+++ b/cross_above_signals.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A66"/>
+  <dimension ref="A1:A178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,455 +443,1239 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ALLE</t>
+          <t>AOS</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>AAL</t>
+          <t>ABT</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>AMP</t>
+          <t>ABBV</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>APH</t>
+          <t>ACN</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BIO</t>
+          <t>ADBE</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BLK</t>
+          <t>ABNB</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>AKAM</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>BRO</t>
+          <t>ALGN</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>CPB</t>
+          <t>AMZN</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>COF</t>
+          <t>AME</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>CARR</t>
+          <t>ANSS</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>CHTR</t>
+          <t>AON</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>CHD</t>
+          <t>AAPL</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>CSCO</t>
+          <t>AMAT</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>CL</t>
+          <t>ANET</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>GLW</t>
+          <t>AJG</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>CPAY</t>
+          <t>ATO</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>CSX</t>
+          <t>ADSK</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>DXCM</t>
+          <t>AZO</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>DFS</t>
+          <t>AVB</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>DHI</t>
+          <t>AXON</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>EW</t>
+          <t>BAX</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>EQIX</t>
+          <t>BBY</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>EQR</t>
+          <t>BX</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>FDS</t>
+          <t>BKNG</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>FICO</t>
+          <t>BXP</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>FI</t>
+          <t>BMY</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>GEHC</t>
+          <t>AVGO</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>GEV</t>
+          <t>BLDR</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>HIG</t>
+          <t>CDNS</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>HAS</t>
+          <t>CZR</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>HUBB</t>
+          <t>CPT</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>IEX</t>
+          <t>CAH</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>INTU</t>
+          <t>KMX</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>KEYS</t>
+          <t>CTLT</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>CBRE</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>LW</t>
+          <t>CDW</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>COR</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>MCD</t>
+          <t>CNP</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>TAP</t>
+          <t>CRL</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>MCO</t>
+          <t>CMG</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>NFLX</t>
+          <t>CHD</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>NTRS</t>
+          <t>CI</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>OMC</t>
+          <t>CTAS</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>PAYC</t>
+          <t>CLX</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>CL</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>PWR</t>
+          <t>STZ</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>QCOM</t>
+          <t>CPRT</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>COST</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>CVS</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>SPGI</t>
+          <t>DRI</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>SHW</t>
+          <t>DAY</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>SNA</t>
+          <t>DE</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>SYY</t>
+          <t>DLR</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>TROW</t>
+          <t>DPZ</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>TSLA</t>
+          <t>ECL</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>EA</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>TSCO</t>
+          <t>LLY</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>TT</t>
+          <t>EPAM</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>USB</t>
+          <t>EFX</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>UPS</t>
+          <t>EQR</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>VMC</t>
+          <t>ESS</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>WRB</t>
+          <t>EXPE</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>WM</t>
+          <t>EXR</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>WMB</t>
+          <t>FFIV</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>FICO</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>FAST</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>FRT</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>FDX</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>FTNT</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>FTV</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>IT</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>GEHC</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>GM</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>GILD</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>GPN</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>HCA</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>HPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>HLT</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>HD</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>HON</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>HST</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>IBM</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>IDXX</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>ITW</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>ILMN</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>INCY</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>IR</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>PODD</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>INTC</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>ICE</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>INTU</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>ISRG</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>INVH</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>IRM</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>JBHT</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>JBL</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>JNPR</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>KMB</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>KLAC</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>LH</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>LRCX</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>LVS</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>LIN</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>LOW</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>LULU</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>MPC</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>MAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>MMC</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>MLM</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>MAS</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>MTCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>MCK</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>META</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>MGM</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>MU</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>MSFT</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>MAA</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>MOH</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>MPWR</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>MSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>NTAP</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>NFLX</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>NKE</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>NDSN</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>NSC</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>NVDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>NVR</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>ORLY</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>OXY</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>ODFL</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>ORCL</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>PCAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>PKG</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>PANW</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>PAYX</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>PSX</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>PLD</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>PSA</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>QRVO</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>REG</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>REGN</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>RSG</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>RHI</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>ROK</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>ROL</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>ROP</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>ROST</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>SLB</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>STX</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>NOW</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>SWKS</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>SJM</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>LUV</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>SWK</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>SBUX</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>SYK</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>SMCI</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>SNPS</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>TRGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>TJX</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>TRMB</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>UBER</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>UDR</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>ULTA</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>VRSN</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>VRSK</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>VMC</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>GWW</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>WBA</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>DIS</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>WST</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>WDC</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>WY</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>WTW</t>
         </is>
       </c>
     </row>
